--- a/dataanalysis/data/predictions/1200/08041135_1136.xlsx
+++ b/dataanalysis/data/predictions/1200/08041135_1136.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="127">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-04</t>
   </si>
   <si>
@@ -392,12 +395,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -755,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,19 +861,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300009</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-5.21</v>
@@ -894,7 +894,7 @@
         <v>138316.89</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -935,8 +935,23 @@
       <c r="W2">
         <v>-1.46</v>
       </c>
+      <c r="X2">
+        <v>-2.12</v>
+      </c>
+      <c r="Y2">
+        <v>11.99</v>
+      </c>
+      <c r="Z2">
+        <v>6.29</v>
+      </c>
       <c r="AC2" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -944,22 +959,25 @@
       <c r="AG2">
         <v>-1.687780380249023</v>
       </c>
-      <c r="AH2" t="s">
-        <v>126</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300158</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-1.47</v>
@@ -977,7 +995,7 @@
         <v>98792.95</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -1018,8 +1036,23 @@
       <c r="W3">
         <v>-0.73</v>
       </c>
+      <c r="X3">
+        <v>-1.59</v>
+      </c>
+      <c r="Y3">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>10.59</v>
+      </c>
       <c r="AC3" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1027,22 +1060,25 @@
       <c r="AG3">
         <v>4.093024730682373</v>
       </c>
-      <c r="AH3" t="s">
-        <v>126</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300289</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>8.17</v>
@@ -1060,7 +1096,7 @@
         <v>112376.81</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1101,8 +1137,23 @@
       <c r="W4">
         <v>-2.21</v>
       </c>
+      <c r="X4">
+        <v>-9.369999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>10.88</v>
+      </c>
+      <c r="Z4">
+        <v>19.04</v>
+      </c>
       <c r="AC4" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1110,22 +1161,25 @@
       <c r="AG4">
         <v>-1.821823239326477</v>
       </c>
-      <c r="AH4" t="s">
-        <v>126</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300322</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>2.19</v>
@@ -1143,7 +1197,7 @@
         <v>116697.56</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -1184,8 +1238,23 @@
       <c r="W5">
         <v>0.57</v>
       </c>
+      <c r="X5">
+        <v>6.45</v>
+      </c>
+      <c r="Y5">
+        <v>21.18</v>
+      </c>
+      <c r="Z5">
+        <v>8.06</v>
+      </c>
       <c r="AC5" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1193,22 +1262,25 @@
       <c r="AG5">
         <v>3.139076232910156</v>
       </c>
-      <c r="AH5" t="s">
-        <v>126</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300378</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>7.89</v>
@@ -1226,7 +1298,7 @@
         <v>243833.83</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1267,8 +1339,23 @@
       <c r="W6">
         <v>-0.17</v>
       </c>
+      <c r="X6">
+        <v>-4.88</v>
+      </c>
+      <c r="Y6">
+        <v>62.98</v>
+      </c>
+      <c r="Z6">
+        <v>-4.29</v>
+      </c>
       <c r="AC6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1276,22 +1363,25 @@
       <c r="AG6">
         <v>5.870304584503174</v>
       </c>
-      <c r="AH6" t="s">
-        <v>126</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300436</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>9.1</v>
@@ -1309,7 +1399,7 @@
         <v>134343.97</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7">
         <v>23</v>
@@ -1350,8 +1440,23 @@
       <c r="W7">
         <v>-0.02</v>
       </c>
+      <c r="X7">
+        <v>2.19</v>
+      </c>
+      <c r="Y7">
+        <v>124.5</v>
+      </c>
+      <c r="Z7">
+        <v>11.55</v>
+      </c>
       <c r="AC7" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1359,22 +1464,25 @@
       <c r="AG7">
         <v>-0.37056964635849</v>
       </c>
-      <c r="AH7" t="s">
-        <v>126</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300486</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>19.99</v>
@@ -1392,7 +1500,7 @@
         <v>79066.11</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1433,8 +1541,23 @@
       <c r="W8">
         <v>0.52</v>
       </c>
+      <c r="X8">
+        <v>20.01</v>
+      </c>
+      <c r="Y8">
+        <v>20.39</v>
+      </c>
+      <c r="Z8">
+        <v>20.01</v>
+      </c>
       <c r="AC8" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1442,22 +1565,25 @@
       <c r="AG8">
         <v>7.924484252929688</v>
       </c>
-      <c r="AH8" t="s">
-        <v>127</v>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300500</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-4.54</v>
@@ -1475,7 +1601,7 @@
         <v>40148.01</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1516,8 +1642,23 @@
       <c r="W9">
         <v>-1.08</v>
       </c>
+      <c r="X9">
+        <v>2.89</v>
+      </c>
+      <c r="Y9">
+        <v>16.21</v>
+      </c>
+      <c r="Z9">
+        <v>5.6</v>
+      </c>
       <c r="AC9" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1525,22 +1666,25 @@
       <c r="AG9">
         <v>4.677236557006836</v>
       </c>
-      <c r="AH9" t="s">
-        <v>126</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300505</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1.94</v>
@@ -1558,7 +1702,7 @@
         <v>40063.41</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -1599,8 +1743,23 @@
       <c r="W10">
         <v>0.63</v>
       </c>
+      <c r="X10">
+        <v>-0.73</v>
+      </c>
+      <c r="Y10">
+        <v>22.3</v>
+      </c>
+      <c r="Z10">
+        <v>1.27</v>
+      </c>
       <c r="AC10" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1608,22 +1767,25 @@
       <c r="AG10">
         <v>6.088653564453125</v>
       </c>
-      <c r="AH10" t="s">
-        <v>126</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300534</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>6.21</v>
@@ -1641,7 +1803,7 @@
         <v>60628.45</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1682,8 +1844,23 @@
       <c r="W11">
         <v>0.64</v>
       </c>
+      <c r="X11">
+        <v>-3.06</v>
+      </c>
+      <c r="Y11">
+        <v>12.22</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
       <c r="AC11" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1691,22 +1868,25 @@
       <c r="AG11">
         <v>5.004159927368164</v>
       </c>
-      <c r="AH11" t="s">
-        <v>126</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300588</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-0.57</v>
@@ -1724,7 +1904,7 @@
         <v>20477.64</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -1765,8 +1945,23 @@
       <c r="W12">
         <v>-0.06</v>
       </c>
+      <c r="X12">
+        <v>0.47</v>
+      </c>
+      <c r="Y12">
+        <v>20.19</v>
+      </c>
+      <c r="Z12">
+        <v>4.77</v>
+      </c>
       <c r="AC12" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1774,22 +1969,25 @@
       <c r="AG12">
         <v>3.16095757484436</v>
       </c>
-      <c r="AH12" t="s">
-        <v>126</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300591</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>13.56</v>
@@ -1807,7 +2005,7 @@
         <v>136617.06</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1848,8 +2046,23 @@
       <c r="W13">
         <v>3.79</v>
       </c>
+      <c r="X13">
+        <v>-0.63</v>
+      </c>
+      <c r="Y13">
+        <v>13.06</v>
+      </c>
+      <c r="Z13">
+        <v>2.59</v>
+      </c>
       <c r="AC13" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1857,22 +2070,25 @@
       <c r="AG13">
         <v>2.501970767974854</v>
       </c>
-      <c r="AH13" t="s">
-        <v>126</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300600</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>6.56</v>
@@ -1890,7 +2106,7 @@
         <v>52668.3</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -1931,8 +2147,23 @@
       <c r="W14">
         <v>0.6</v>
       </c>
+      <c r="X14">
+        <v>-1.43</v>
+      </c>
+      <c r="Y14">
+        <v>18</v>
+      </c>
+      <c r="Z14">
+        <v>3.63</v>
+      </c>
       <c r="AC14" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1940,22 +2171,25 @@
       <c r="AG14">
         <v>1.40678858757019</v>
       </c>
-      <c r="AH14" t="s">
-        <v>126</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300609</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>6.61</v>
@@ -1973,7 +2207,7 @@
         <v>44301.88</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2014,8 +2248,23 @@
       <c r="W15">
         <v>0.46</v>
       </c>
+      <c r="X15">
+        <v>1.84</v>
+      </c>
+      <c r="Y15">
+        <v>49.8</v>
+      </c>
+      <c r="Z15">
+        <v>11.09</v>
+      </c>
       <c r="AC15" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2023,22 +2272,25 @@
       <c r="AG15">
         <v>3.791492462158203</v>
       </c>
-      <c r="AH15" t="s">
-        <v>126</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300648</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>8.1</v>
@@ -2056,7 +2308,7 @@
         <v>40018.83</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2097,8 +2349,23 @@
       <c r="W16">
         <v>0.11</v>
       </c>
+      <c r="X16">
+        <v>2.06</v>
+      </c>
+      <c r="Y16">
+        <v>51.03</v>
+      </c>
+      <c r="Z16">
+        <v>8.69</v>
+      </c>
       <c r="AC16" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2106,22 +2373,25 @@
       <c r="AG16">
         <v>0.5673720240592957</v>
       </c>
-      <c r="AH16" t="s">
-        <v>126</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300683</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.71</v>
@@ -2139,7 +2409,7 @@
         <v>56230.07</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17">
         <v>11</v>
@@ -2180,8 +2450,23 @@
       <c r="W17">
         <v>0.4</v>
       </c>
+      <c r="X17">
+        <v>-7.57</v>
+      </c>
+      <c r="Y17">
+        <v>59.87</v>
+      </c>
+      <c r="Z17">
+        <v>-0.18</v>
+      </c>
       <c r="AC17" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2189,22 +2474,25 @@
       <c r="AG17">
         <v>3.353399753570557</v>
       </c>
-      <c r="AH17" t="s">
-        <v>126</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300696</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -2222,7 +2510,7 @@
         <v>99372.03999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2263,8 +2551,23 @@
       <c r="W18">
         <v>4.29</v>
       </c>
+      <c r="X18">
+        <v>6.81</v>
+      </c>
+      <c r="Y18">
+        <v>35.01</v>
+      </c>
+      <c r="Z18">
+        <v>16.24</v>
+      </c>
       <c r="AC18" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2272,22 +2575,25 @@
       <c r="AG18">
         <v>4.222949028015137</v>
       </c>
-      <c r="AH18" t="s">
-        <v>126</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300706</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>3.77</v>
@@ -2305,7 +2611,7 @@
         <v>54004.8</v>
       </c>
       <c r="J19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19">
         <v>7</v>
@@ -2346,8 +2652,23 @@
       <c r="W19">
         <v>0.52</v>
       </c>
+      <c r="X19">
+        <v>10.2</v>
+      </c>
+      <c r="Y19">
+        <v>40.9</v>
+      </c>
+      <c r="Z19">
+        <v>16.92</v>
+      </c>
       <c r="AC19" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2355,22 +2676,25 @@
       <c r="AG19">
         <v>2.957772493362427</v>
       </c>
-      <c r="AH19" t="s">
-        <v>126</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300731</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>12.18</v>
@@ -2388,7 +2712,7 @@
         <v>71263.7</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2429,8 +2753,23 @@
       <c r="W20">
         <v>0.13</v>
       </c>
+      <c r="X20">
+        <v>6.42</v>
+      </c>
+      <c r="Y20">
+        <v>40.17</v>
+      </c>
+      <c r="Z20">
+        <v>9.6</v>
+      </c>
       <c r="AC20" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2438,22 +2777,25 @@
       <c r="AG20">
         <v>1.578609108924866</v>
       </c>
-      <c r="AH20" t="s">
-        <v>126</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300732</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-1.3</v>
@@ -2471,7 +2813,7 @@
         <v>38279.05</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2512,8 +2854,23 @@
       <c r="W21">
         <v>-0.31</v>
       </c>
+      <c r="X21">
+        <v>11.35</v>
+      </c>
+      <c r="Y21">
+        <v>11.74</v>
+      </c>
+      <c r="Z21">
+        <v>10.13</v>
+      </c>
       <c r="AC21" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2521,22 +2878,25 @@
       <c r="AG21">
         <v>3.019193887710571</v>
       </c>
-      <c r="AH21" t="s">
-        <v>126</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300733</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>7.08</v>
@@ -2554,7 +2914,7 @@
         <v>78689.96000000001</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2595,8 +2955,23 @@
       <c r="W22">
         <v>-0.3</v>
       </c>
+      <c r="X22">
+        <v>2.75</v>
+      </c>
+      <c r="Y22">
+        <v>24.88</v>
+      </c>
+      <c r="Z22">
+        <v>8.17</v>
+      </c>
       <c r="AC22" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2604,22 +2979,25 @@
       <c r="AG22">
         <v>2.765649795532227</v>
       </c>
-      <c r="AH22" t="s">
-        <v>126</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300747</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-0.77</v>
@@ -2637,7 +3015,7 @@
         <v>52790.59</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23">
         <v>13</v>
@@ -2678,8 +3056,23 @@
       <c r="W23">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X23">
+        <v>-4.24</v>
+      </c>
+      <c r="Y23">
+        <v>31.66</v>
+      </c>
+      <c r="Z23">
+        <v>7.32</v>
+      </c>
       <c r="AC23" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2687,22 +3080,25 @@
       <c r="AG23">
         <v>6.618812561035156</v>
       </c>
-      <c r="AH23" t="s">
-        <v>126</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300830</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>12.81</v>
@@ -2720,7 +3116,7 @@
         <v>87790.84</v>
       </c>
       <c r="J24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -2761,8 +3157,23 @@
       <c r="W24">
         <v>1.28</v>
       </c>
+      <c r="X24">
+        <v>-6.04</v>
+      </c>
+      <c r="Y24">
+        <v>13.27</v>
+      </c>
+      <c r="Z24">
+        <v>3.92</v>
+      </c>
       <c r="AC24" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2770,22 +3181,25 @@
       <c r="AG24">
         <v>4.451103687286377</v>
       </c>
-      <c r="AH24" t="s">
-        <v>126</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300841</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-3.3</v>
@@ -2803,7 +3217,7 @@
         <v>37943.31</v>
       </c>
       <c r="J25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2844,8 +3258,23 @@
       <c r="W25">
         <v>-0.31</v>
       </c>
+      <c r="X25">
+        <v>1.05</v>
+      </c>
+      <c r="Y25">
+        <v>79.01000000000001</v>
+      </c>
+      <c r="Z25">
+        <v>2.88</v>
+      </c>
       <c r="AC25" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2853,22 +3282,25 @@
       <c r="AG25">
         <v>4.050219535827637</v>
       </c>
-      <c r="AH25" t="s">
-        <v>126</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300858</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>5.78</v>
@@ -2886,7 +3318,7 @@
         <v>53776.76</v>
       </c>
       <c r="J26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2927,8 +3359,23 @@
       <c r="W26">
         <v>0.71</v>
       </c>
+      <c r="X26">
+        <v>-10.28</v>
+      </c>
+      <c r="Y26">
+        <v>23.76</v>
+      </c>
+      <c r="Z26">
+        <v>10.1</v>
+      </c>
       <c r="AC26" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2936,22 +3383,25 @@
       <c r="AG26">
         <v>5.614593505859375</v>
       </c>
-      <c r="AH26" t="s">
-        <v>126</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300869</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>1.06</v>
@@ -2969,7 +3419,7 @@
         <v>29116.97</v>
       </c>
       <c r="J27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -3010,8 +3460,23 @@
       <c r="W27">
         <v>0.23</v>
       </c>
+      <c r="X27">
+        <v>-5.01</v>
+      </c>
+      <c r="Y27">
+        <v>20.54</v>
+      </c>
+      <c r="Z27">
+        <v>2.65</v>
+      </c>
       <c r="AC27" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3019,22 +3484,25 @@
       <c r="AG27">
         <v>3.752228260040283</v>
       </c>
-      <c r="AH27" t="s">
-        <v>126</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300877</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-4.52</v>
@@ -3052,7 +3520,7 @@
         <v>17825.29</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K28">
         <v>7</v>
@@ -3093,8 +3561,23 @@
       <c r="W28">
         <v>-0.32</v>
       </c>
+      <c r="X28">
+        <v>-3.98</v>
+      </c>
+      <c r="Y28">
+        <v>29.77</v>
+      </c>
+      <c r="Z28">
+        <v>2.09</v>
+      </c>
       <c r="AC28" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -3102,22 +3585,25 @@
       <c r="AG28">
         <v>8.738670349121094</v>
       </c>
-      <c r="AH28" t="s">
-        <v>126</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300885</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>0.64</v>
@@ -3135,7 +3621,7 @@
         <v>27559.65</v>
       </c>
       <c r="J29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K29">
         <v>9</v>
@@ -3176,8 +3662,23 @@
       <c r="W29">
         <v>0.14</v>
       </c>
+      <c r="X29">
+        <v>0.5</v>
+      </c>
+      <c r="Y29">
+        <v>25.59</v>
+      </c>
+      <c r="Z29">
+        <v>16.05</v>
+      </c>
       <c r="AC29" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3185,22 +3686,25 @@
       <c r="AG29">
         <v>2.749605417251587</v>
       </c>
-      <c r="AH29" t="s">
-        <v>126</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300965</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>12.22</v>
@@ -3218,7 +3722,7 @@
         <v>38397.14</v>
       </c>
       <c r="J30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3259,8 +3763,23 @@
       <c r="W30">
         <v>0.99</v>
       </c>
+      <c r="X30">
+        <v>5.19</v>
+      </c>
+      <c r="Y30">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="Z30">
+        <v>23.65</v>
+      </c>
       <c r="AC30" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3268,22 +3787,25 @@
       <c r="AG30">
         <v>-0.1277856826782227</v>
       </c>
-      <c r="AH30" t="s">
-        <v>126</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300966</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-4.05</v>
@@ -3301,7 +3823,7 @@
         <v>33946.64</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3342,8 +3864,23 @@
       <c r="W31">
         <v>1.08</v>
       </c>
+      <c r="X31">
+        <v>-5.22</v>
+      </c>
+      <c r="Y31">
+        <v>27.25</v>
+      </c>
+      <c r="Z31">
+        <v>6.45</v>
+      </c>
       <c r="AC31" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3351,22 +3888,25 @@
       <c r="AG31">
         <v>1.491166234016418</v>
       </c>
-      <c r="AH31" t="s">
-        <v>126</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301007</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>3.02</v>
@@ -3384,7 +3924,7 @@
         <v>27952.94</v>
       </c>
       <c r="J32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K32">
         <v>7</v>
@@ -3425,8 +3965,23 @@
       <c r="W32">
         <v>0.14</v>
       </c>
+      <c r="X32">
+        <v>0.23</v>
+      </c>
+      <c r="Y32">
+        <v>39.77</v>
+      </c>
+      <c r="Z32">
+        <v>2.24</v>
+      </c>
       <c r="AC32" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3434,22 +3989,25 @@
       <c r="AG32">
         <v>5.918583393096924</v>
       </c>
-      <c r="AH32" t="s">
-        <v>126</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301038</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>3.33</v>
@@ -3467,7 +4025,7 @@
         <v>51420.87</v>
       </c>
       <c r="J33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -3508,8 +4066,23 @@
       <c r="W33">
         <v>-0.24</v>
       </c>
+      <c r="X33">
+        <v>6.29</v>
+      </c>
+      <c r="Y33">
+        <v>32.36</v>
+      </c>
+      <c r="Z33">
+        <v>-0.74</v>
+      </c>
       <c r="AC33" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3517,22 +4090,25 @@
       <c r="AG33">
         <v>2.987178325653076</v>
       </c>
-      <c r="AH33" t="s">
-        <v>126</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301052</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0.14</v>
@@ -3550,7 +4126,7 @@
         <v>39830.67</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -3591,8 +4167,23 @@
       <c r="W34">
         <v>-0.28</v>
       </c>
+      <c r="X34">
+        <v>3.42</v>
+      </c>
+      <c r="Y34">
+        <v>68.48</v>
+      </c>
+      <c r="Z34">
+        <v>7.96</v>
+      </c>
       <c r="AC34" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3600,22 +4191,25 @@
       <c r="AG34">
         <v>0.7823620438575745</v>
       </c>
-      <c r="AH34" t="s">
-        <v>126</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301150</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>2.75</v>
@@ -3633,7 +4227,7 @@
         <v>30058.43</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K35">
         <v>7</v>
@@ -3674,8 +4268,23 @@
       <c r="W35">
         <v>0.32</v>
       </c>
+      <c r="X35">
+        <v>-2.75</v>
+      </c>
+      <c r="Y35">
+        <v>29.29</v>
+      </c>
+      <c r="Z35">
+        <v>1.77</v>
+      </c>
       <c r="AC35" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3683,22 +4292,25 @@
       <c r="AG35">
         <v>2.554875135421753</v>
       </c>
-      <c r="AH35" t="s">
-        <v>126</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301161</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>12.75</v>
@@ -3716,7 +4328,7 @@
         <v>53838.08</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3757,8 +4369,23 @@
       <c r="W36">
         <v>2.76</v>
       </c>
+      <c r="X36">
+        <v>4.42</v>
+      </c>
+      <c r="Y36">
+        <v>33.38</v>
+      </c>
+      <c r="Z36">
+        <v>6.65</v>
+      </c>
       <c r="AC36" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3766,22 +4393,25 @@
       <c r="AG36">
         <v>0.001796219381503761</v>
       </c>
-      <c r="AH36" t="s">
-        <v>126</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301200</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-3.63</v>
@@ -3799,7 +4429,7 @@
         <v>45209.66</v>
       </c>
       <c r="J37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37">
         <v>8</v>
@@ -3840,8 +4470,23 @@
       <c r="W37">
         <v>-0.26</v>
       </c>
+      <c r="X37">
+        <v>14.2</v>
+      </c>
+      <c r="Y37">
+        <v>84.87</v>
+      </c>
+      <c r="Z37">
+        <v>19.45</v>
+      </c>
       <c r="AC37" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3849,22 +4494,25 @@
       <c r="AG37">
         <v>8.36749267578125</v>
       </c>
-      <c r="AH37" t="s">
-        <v>126</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301213</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>4.63</v>
@@ -3882,7 +4530,7 @@
         <v>52570.65</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -3923,8 +4571,23 @@
       <c r="W38">
         <v>-0.47</v>
       </c>
+      <c r="X38">
+        <v>4.08</v>
+      </c>
+      <c r="Y38">
+        <v>80</v>
+      </c>
+      <c r="Z38">
+        <v>12.45</v>
+      </c>
       <c r="AC38" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3932,22 +4595,25 @@
       <c r="AG38">
         <v>0.7683811783790588</v>
       </c>
-      <c r="AH38" t="s">
-        <v>126</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301357</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>17.58</v>
@@ -3965,7 +4631,7 @@
         <v>121061.9</v>
       </c>
       <c r="J39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -4006,8 +4672,23 @@
       <c r="W39">
         <v>2.32</v>
       </c>
+      <c r="X39">
+        <v>14.64</v>
+      </c>
+      <c r="Y39">
+        <v>137.6</v>
+      </c>
+      <c r="Z39">
+        <v>22.34</v>
+      </c>
       <c r="AC39" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4015,22 +4696,25 @@
       <c r="AG39">
         <v>-0.5972650647163391</v>
       </c>
-      <c r="AH39" t="s">
-        <v>126</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301389</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -4048,7 +4732,7 @@
         <v>60165.73</v>
       </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K40">
         <v>20</v>
@@ -4089,8 +4773,23 @@
       <c r="W40">
         <v>2.18</v>
       </c>
+      <c r="X40">
+        <v>0.29</v>
+      </c>
+      <c r="Y40">
+        <v>54.99</v>
+      </c>
+      <c r="Z40">
+        <v>6.32</v>
+      </c>
       <c r="AC40" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4098,22 +4797,25 @@
       <c r="AG40">
         <v>17.88919067382812</v>
       </c>
-      <c r="AH40" t="s">
-        <v>126</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301489</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -4131,7 +4833,7 @@
         <v>96799.39999999999</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -4172,8 +4874,23 @@
       <c r="W41">
         <v>-0.78</v>
       </c>
+      <c r="X41">
+        <v>4.96</v>
+      </c>
+      <c r="Y41">
+        <v>128.18</v>
+      </c>
+      <c r="Z41">
+        <v>10.92</v>
+      </c>
       <c r="AC41" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4181,22 +4898,25 @@
       <c r="AG41">
         <v>4.204725742340088</v>
       </c>
-      <c r="AH41" t="s">
-        <v>126</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301511</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-2.29</v>
@@ -4214,7 +4934,7 @@
         <v>116615.68</v>
       </c>
       <c r="J42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K42">
         <v>30</v>
@@ -4255,8 +4975,23 @@
       <c r="W42">
         <v>-0.66</v>
       </c>
+      <c r="X42">
+        <v>-3.9</v>
+      </c>
+      <c r="Y42">
+        <v>36.39</v>
+      </c>
+      <c r="Z42">
+        <v>4.18</v>
+      </c>
       <c r="AC42" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4264,22 +4999,25 @@
       <c r="AG42">
         <v>7.692497730255127</v>
       </c>
-      <c r="AH42" t="s">
-        <v>126</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688020</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>1.13</v>
@@ -4297,7 +5035,7 @@
         <v>25466.98</v>
       </c>
       <c r="J43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -4338,8 +5076,23 @@
       <c r="W43">
         <v>0.31</v>
       </c>
+      <c r="X43">
+        <v>-3.23</v>
+      </c>
+      <c r="Y43">
+        <v>57.8</v>
+      </c>
+      <c r="Z43">
+        <v>6.21</v>
+      </c>
       <c r="AC43" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4347,22 +5100,25 @@
       <c r="AG43">
         <v>3.825800180435181</v>
       </c>
-      <c r="AH43" t="s">
-        <v>126</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688039</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>2.1</v>
@@ -4380,7 +5136,7 @@
         <v>34599.73</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4421,8 +5177,23 @@
       <c r="W44">
         <v>0.14</v>
       </c>
+      <c r="X44">
+        <v>4.47</v>
+      </c>
+      <c r="Y44">
+        <v>49.86</v>
+      </c>
+      <c r="Z44">
+        <v>6.9</v>
+      </c>
       <c r="AC44" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4430,22 +5201,25 @@
       <c r="AG44">
         <v>3.35126781463623</v>
       </c>
-      <c r="AH44" t="s">
-        <v>126</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688048</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>2.87</v>
@@ -4463,7 +5237,7 @@
         <v>45618.03</v>
       </c>
       <c r="J45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4504,8 +5278,23 @@
       <c r="W45">
         <v>0.08</v>
       </c>
+      <c r="X45">
+        <v>-0.36</v>
+      </c>
+      <c r="Y45">
+        <v>76.95999999999999</v>
+      </c>
+      <c r="Z45">
+        <v>7.49</v>
+      </c>
       <c r="AC45" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4513,22 +5302,25 @@
       <c r="AG45">
         <v>0.3091165125370026</v>
       </c>
-      <c r="AH45" t="s">
-        <v>126</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688110</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>14.49</v>
@@ -4546,7 +5338,7 @@
         <v>480142.95</v>
       </c>
       <c r="J46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -4587,8 +5379,23 @@
       <c r="W46">
         <v>-0.59</v>
       </c>
+      <c r="X46">
+        <v>-11.63</v>
+      </c>
+      <c r="Y46">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="Z46">
+        <v>3.32</v>
+      </c>
       <c r="AC46" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4596,22 +5403,25 @@
       <c r="AG46">
         <v>4.219717979431152</v>
       </c>
-      <c r="AH46" t="s">
-        <v>126</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688189</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-5.63</v>
@@ -4629,7 +5439,7 @@
         <v>50489.25</v>
       </c>
       <c r="J47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -4670,8 +5480,23 @@
       <c r="W47">
         <v>-0.04</v>
       </c>
+      <c r="X47">
+        <v>-7.77</v>
+      </c>
+      <c r="Y47">
+        <v>16.97</v>
+      </c>
+      <c r="Z47">
+        <v>2.35</v>
+      </c>
       <c r="AC47" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -4679,22 +5504,25 @@
       <c r="AG47">
         <v>3.027065992355347</v>
       </c>
-      <c r="AH47" t="s">
-        <v>126</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688258</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>7.18</v>
@@ -4712,7 +5540,7 @@
         <v>48691.85</v>
       </c>
       <c r="J48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4753,8 +5581,23 @@
       <c r="W48">
         <v>0.91</v>
       </c>
+      <c r="X48">
+        <v>-6.27</v>
+      </c>
+      <c r="Y48">
+        <v>72.97</v>
+      </c>
+      <c r="Z48">
+        <v>1.16</v>
+      </c>
       <c r="AC48" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>1</v>
@@ -4762,22 +5605,25 @@
       <c r="AG48">
         <v>3.195048093795776</v>
       </c>
-      <c r="AH48" t="s">
-        <v>126</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688448</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-5.25</v>
@@ -4795,7 +5641,7 @@
         <v>20045.78</v>
       </c>
       <c r="J49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -4836,8 +5682,23 @@
       <c r="W49">
         <v>-1.73</v>
       </c>
+      <c r="X49">
+        <v>-3.42</v>
+      </c>
+      <c r="Y49">
+        <v>41.7</v>
+      </c>
+      <c r="Z49">
+        <v>10.03</v>
+      </c>
       <c r="AC49" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4845,22 +5706,25 @@
       <c r="AG49">
         <v>1.851694107055664</v>
       </c>
-      <c r="AH49" t="s">
-        <v>126</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688556</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-0.84</v>
@@ -4878,7 +5742,7 @@
         <v>21578.42</v>
       </c>
       <c r="J50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -4919,8 +5783,23 @@
       <c r="W50">
         <v>-0.04</v>
       </c>
+      <c r="X50">
+        <v>6.07</v>
+      </c>
+      <c r="Y50">
+        <v>11.5</v>
+      </c>
+      <c r="Z50">
+        <v>8.800000000000001</v>
+      </c>
       <c r="AC50" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4928,22 +5807,25 @@
       <c r="AG50">
         <v>2.767177820205688</v>
       </c>
-      <c r="AH50" t="s">
-        <v>126</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688603</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-3.16</v>
@@ -4961,7 +5843,7 @@
         <v>19960.68</v>
       </c>
       <c r="J51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -5002,8 +5884,23 @@
       <c r="W51">
         <v>0.48</v>
       </c>
+      <c r="X51">
+        <v>1.92</v>
+      </c>
+      <c r="Y51">
+        <v>68.52</v>
+      </c>
+      <c r="Z51">
+        <v>5.63</v>
+      </c>
       <c r="AC51" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>1</v>
@@ -5011,22 +5908,25 @@
       <c r="AG51">
         <v>8.801059722900391</v>
       </c>
-      <c r="AH51" t="s">
-        <v>126</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688668</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-2.33</v>
@@ -5044,7 +5944,7 @@
         <v>43297.4</v>
       </c>
       <c r="J52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K52">
         <v>13</v>
@@ -5085,8 +5985,23 @@
       <c r="W52">
         <v>-0.32</v>
       </c>
+      <c r="X52">
+        <v>2.71</v>
+      </c>
+      <c r="Y52">
+        <v>94.98</v>
+      </c>
+      <c r="Z52">
+        <v>8.029999999999999</v>
+      </c>
       <c r="AC52" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>1</v>
@@ -5094,8 +6009,11 @@
       <c r="AG52">
         <v>6.483490943908691</v>
       </c>
-      <c r="AH52" t="s">
-        <v>126</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
